--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12" xml:space="preserve">
   <si>
-    <t>Time (sec)</t>
+    <t>Avg Time (sec)</t>
   </si>
   <si>
     <t>Packet Loss</t>
@@ -35,10 +35,10 @@
     <t>Local</t>
   </si>
   <si>
-    <t>small.txt (45 Bytes)</t>
-  </si>
-  <si>
-    <t>medium.jpg (44.43 KB)</t>
+    <t>small.txt (45 Bytes) (10 times)</t>
+  </si>
+  <si>
+    <t>medium.jpg (44.43 KB) (10 times)</t>
   </si>
   <si>
     <t>LAN</t>
@@ -136,10 +136,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="10"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="9"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="9"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="9"/>
@@ -217,10 +217,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.144768999889493</v>
+        <v>0.0030138000147417188</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.7574269999749959</v>
+        <v>0.002043300005607307</v>
       </c>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
@@ -235,10 +235,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.990896999835968</v>
+        <v>0.04863890000851825</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.03570100013166666</v>
+        <v>0.0057667999877594415</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
@@ -254,10 +254,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.7332550000865012</v>
+        <v>0.004543900047428906</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.7387779999990016</v>
+        <v>0.003966900007799268</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
@@ -272,10 +272,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.5862090000882745</v>
+        <v>0.07063169997418299</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.35154400020837784</v>
+        <v>0.010418599983677269</v>
       </c>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
@@ -291,10 +291,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.27763600018806756</v>
+        <v>0.23238089999649675</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.9136910000815988</v>
+        <v>0.77170329997316</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -309,10 +309,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.4997030000668019</v>
+        <v>0.3117841000203043</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.5889889998361468</v>
+        <v>0.9604642999940551</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>

--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -9,11 +9,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14" xml:space="preserve">
   <si>
     <t>Avg Time (sec)</t>
   </si>
   <si>
+    <t>% Faster</t>
+  </si>
+  <si>
     <t>Packet Loss</t>
   </si>
   <si>
@@ -30,6 +33,9 @@
   </si>
   <si>
     <t>UDT</t>
+  </si>
+  <si>
+    <t>Than TCP</t>
   </si>
   <si>
     <t>Local</t>
@@ -51,9 +57,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
+    <numFmt numFmtId="102" formatCode="[GREEN]0.00%;-[RED]0.00%"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -104,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
@@ -114,6 +121,9 @@
     </xf>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" numFmtId="102" fontId="0" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -140,9 +150,10 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="10"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="10"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="9"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="9"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -172,12 +183,15 @@
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -185,22 +199,22 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>5</v>
@@ -208,123 +222,156 @@
       <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.0030138000147417188</v>
+        <v>0.004403300000558374</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.002043300005607307</v>
-      </c>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
+        <v>0.0023888000017905143</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.00857350000005681</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>-0.7213740010760267</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.04863890000851825</v>
+        <v>0.06377290000018547</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.0057667999877594415</v>
-      </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
+        <v>0.013325999998050975</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.053369599999132336</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.7503072910745514</v>
+      </c>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
     </row>
     <row r="5"/>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="0" t="n">
-        <v>0.004543900047428906</v>
+        <v>0.005572300001222175</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.003966900007799268</v>
-      </c>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
+        <v>0.0054616999994323125</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.011270499999227468</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>-0.5153986069999839</v>
+      </c>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.07063169997418299</v>
+        <v>0.0920122999988962</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.010418599983677269</v>
-      </c>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
+        <v>0.013059699999575968</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.09892850000032923</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.8679884967473225</v>
+      </c>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
     </row>
     <row r="8"/>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.23238089999649675</v>
+        <v>0.23611000000018975</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.77170329997316</v>
-      </c>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
+        <v>0.46764579999944544</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1.1968429999993533</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.6092672138286324</v>
+      </c>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C10" s="0" t="n">
-        <v>0.3117841000203043</v>
+        <v>0.3372002000003704</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.9604642999940551</v>
-      </c>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
+        <v>0.9493998999983887</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2.961587999999028</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.6794287726723973</v>
+      </c>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
     </row>
     <row r="11"/>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -41,13 +41,13 @@
     <t>Local</t>
   </si>
   <si>
-    <t>small.txt (45 Bytes) (10 times)</t>
-  </si>
-  <si>
-    <t>medium.jpg (44.43 KB) (10 times)</t>
-  </si>
-  <si>
-    <t>LAN</t>
+    <t>tiny.txt (45 Bytes) (10 times)</t>
+  </si>
+  <si>
+    <t>small.jpg (44.43 KB) (10 times)</t>
+  </si>
+  <si>
+    <t>medium.jpg (2.248 MB) (5 times)</t>
   </si>
   <si>
     <t>Internet</t>
@@ -234,16 +234,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.004403300000558374</v>
+        <v>0.003003400003944989</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.0023888000017905143</v>
+        <v>0.003274299998884089</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0.00857350000005681</v>
+        <v>0.006583900001714937</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>-0.7213740010760267</v>
+        <v>-0.5026807822064099</v>
       </c>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
@@ -257,116 +257,115 @@
         <v>11</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.06377290000018547</v>
+        <v>0.04829529999988154</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.013325999998050975</v>
+        <v>0.009827900004165713</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.053369599999132336</v>
+        <v>0.04428600000101142</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-0.7503072910745514</v>
+        <v>-0.7780811090651388</v>
       </c>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.005572300001222175</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.0054616999994323125</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.011270499999227468</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>-0.5153986069999839</v>
-      </c>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
-      <c r="I6" s="0"/>
-    </row>
+      <c r="C5" s="0" t="n">
+        <v>1.286583599995356</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.7791729999997188</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.5591157999995631</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.3935807215613074</v>
+      </c>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+    </row>
+    <row r="6"/>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.0920122999988962</v>
+        <v>0.2364815999972052</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.013059699999575968</v>
+        <v>0.466005099999893</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0.09892850000032923</v>
+        <v>1.2279490999993867</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.8679884967473225</v>
+        <v>-0.6205012895077444</v>
       </c>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
     </row>
-    <row r="8"/>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.3175075000021025</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.950518700000248</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1.3214909000016632</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.2807224779231914</v>
+      </c>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+    </row>
     <row r="9">
       <c r="A9" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.23611000000018975</v>
+        <v>3.2856530000048223</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.46764579999944544</v>
+        <v>3.828223200002685</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1.1968429999993533</v>
+        <v>4.650853400002234</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.6092672138286324</v>
+        <v>-0.17687725869818938</v>
       </c>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.3372002000003704</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0.9493998999983887</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>2.961587999999028</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>-0.6794287726723973</v>
-      </c>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-    </row>
-    <row r="11"/>
+    <row r="10"/>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <mergeCells count="2">

--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -9,17 +9,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28" xml:space="preserve">
   <si>
     <t>Avg Time (sec)</t>
   </si>
   <si>
+    <t>UDT v1.0.0 * Avg Time (sec)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Fastest</t>
+  </si>
+  <si>
     <t>% Faster</t>
   </si>
   <si>
-    <t>Packet Loss</t>
-  </si>
-  <si>
     <t>Host</t>
   </si>
   <si>
@@ -32,7 +41,25 @@
     <t>TCP</t>
   </si>
   <si>
-    <t>UDT</t>
+    <t>0.05 ACK</t>
+  </si>
+  <si>
+    <t>0.1 ACK</t>
+  </si>
+  <si>
+    <t>0.15 ACK</t>
+  </si>
+  <si>
+    <t>0.2 ACK</t>
+  </si>
+  <si>
+    <t>0.25 ACK</t>
+  </si>
+  <si>
+    <t>ACK Time</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
   <si>
     <t>Than TCP</t>
@@ -44,25 +71,42 @@
     <t>tiny.txt (45 Bytes) (10 times)</t>
   </si>
   <si>
+    <t>0.15 sec</t>
+  </si>
+  <si>
     <t>small.jpg (44.43 KB) (10 times)</t>
   </si>
   <si>
+    <t>0.1 sec</t>
+  </si>
+  <si>
     <t>medium.jpg (2.248 MB) (5 times)</t>
   </si>
   <si>
+    <t>0.25 sec</t>
+  </si>
+  <si>
     <t>Internet</t>
+  </si>
+  <si>
+    <t>0.05 sec</t>
+  </si>
+  <si>
+    <t>0.2 sec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
     <numFmt numFmtId="102" formatCode="[GREEN]0.00%;-[RED]0.00%"/>
+    <numFmt numFmtId="103" formatCode="[GREEN]0.00%;-[RED]0.00%"/>
+    <numFmt numFmtId="104" formatCode="[GREEN]0.00%;-[RED]0.00%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="10">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -70,7 +114,7 @@
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="15"/>
+      <sz val="13"/>
       <family val="1"/>
       <b val="true"/>
       <u val="true"/>
@@ -81,6 +125,51 @@
       <family val="1"/>
       <b val="true"/>
       <u val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="15"/>
+      <family val="1"/>
+      <b val="true"/>
+      <u val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="15"/>
+      <family val="1"/>
+      <b val="true"/>
+      <u val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="13"/>
+      <family val="1"/>
+      <b val="true"/>
+      <u val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="13"/>
+      <family val="1"/>
+      <b val="true"/>
+      <u val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="15"/>
+      <family val="1"/>
+      <b val="true"/>
+      <u val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -104,6 +193,95 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -111,20 +289,49 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
-    <xf borderId="0" numFmtId="0" fontId="1" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="1" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" numFmtId="0" fontId="2" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="2" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" numFmtId="102" fontId="0" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf borderId="3" numFmtId="0" fontId="3" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" numFmtId="0" fontId="4" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="5" numFmtId="0" fontId="5" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="7" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="8" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="9" numFmtId="0" fontId="6" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="10" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="11" numFmtId="0" fontId="7" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="12" numFmtId="103" fontId="8" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf borderId="13" numFmtId="104" fontId="9" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf borderId="14" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -139,7 +346,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA200"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -150,10 +357,13 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="10"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="10"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -167,210 +377,434 @@
           <t/>
         </is>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I1" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="G1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.003003400003944989</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.003274299998884089</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.006583900001714937</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>-0.5026807822064099</v>
-      </c>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
+        <v>19</v>
+      </c>
+      <c r="C3" s="15" t="n">
+        <v>0.003414199996041134</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>0.0016750000024330803</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <v>0.012218300001404715</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.005432199996721465</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.004343200002040248</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.007562099996721372</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.010509699999238365</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.004343200002040248</v>
+      </c>
+      <c r="L3" s="17" t="n">
+        <v>-0.6143396570164309</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.04829529999988154</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.009827900004165713</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.04428600000101142</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>-0.7780811090651388</v>
-      </c>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
+        <v>21</v>
+      </c>
+      <c r="C4" s="15" t="n">
+        <v>0.045461399998748674</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>0.0154930000033346</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <v>0.028948400000808762</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.02731739999871934</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.03605010000464972</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.034554200002457944</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.033208199996443</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.02731739999871934</v>
+      </c>
+      <c r="L4" s="17" t="n">
+        <v>-0.4328523210824997</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1.286583599995356</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.7791729999997188</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.5591157999995631</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>0.3935807215613074</v>
-      </c>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
-    </row>
-    <row r="6"/>
+        <v>23</v>
+      </c>
+      <c r="C5" s="15" t="n">
+        <v>1.4270029999956022</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>0.6361983999959193</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>0.6250697999959811</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.6210510000004433</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.6063205999904312</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.6171819999959552</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.6029129999980796</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.6029129999980796</v>
+      </c>
+      <c r="L5" s="17" t="n">
+        <v>0.05520763360210479</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C6" s="15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E6" s="15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L6" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0.2364815999972052</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0.466005099999893</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1.2279490999993867</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>-0.6205012895077444</v>
-      </c>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
+        <v>19</v>
+      </c>
+      <c r="C7" s="15" t="n">
+        <v>0.23584220000338973</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>0.4667420999976457</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <v>1.1606787000011536</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1.1618363999994472</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1.1623959999997169</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1.3123914000025252</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1.1626464999979362</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1.1606787000011536</v>
+      </c>
+      <c r="L7" s="17" t="n">
+        <v>-0.5978714005889987</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.3175075000021025</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0.950518700000248</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1.3214909000016632</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>-0.2807224779231914</v>
-      </c>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
+        <v>21</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>0.32135359999956564</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>0.9941750000041794</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>1.2737947000015992</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1.237368299998343</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1.2371672000008402</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1.6212727000049199</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1.3608425999991596</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1.2371672000008402</v>
+      </c>
+      <c r="L8" s="17" t="n">
+        <v>-0.1964101537742804</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>3.2856530000048223</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>3.828223200002685</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>4.650853400002234</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>-0.17687725869818938</v>
-      </c>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-    </row>
-    <row r="10"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="13" t="n">
+        <v>3.398048599998583</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <v>4.796132999996189</v>
+      </c>
+      <c r="E9" s="13" t="n">
+        <v>4.2870424000051575</v>
+      </c>
+      <c r="F9" s="19" t="n">
+        <v>4.556186400001752</v>
+      </c>
+      <c r="G9" s="19" t="n">
+        <v>4.571803400007775</v>
+      </c>
+      <c r="H9" s="19" t="n">
+        <v>4.144852400000673</v>
+      </c>
+      <c r="I9" s="19" t="n">
+        <v>4.38671280000126</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="19" t="n">
+        <v>4.144852400000673</v>
+      </c>
+      <c r="L9" s="18" t="n">
+        <v>0.1571299860992421</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <mergeCells count="2">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:I1"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -9,11 +9,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14" xml:space="preserve">
   <si>
     <t>Avg Time (sec)</t>
   </si>
   <si>
+    <t>% Faster</t>
+  </si>
+  <si>
     <t>Packet Loss</t>
   </si>
   <si>
@@ -32,16 +35,19 @@
     <t>UDT</t>
   </si>
   <si>
+    <t>Than TCP</t>
+  </si>
+  <si>
     <t>Local</t>
   </si>
   <si>
-    <t>small.txt (45 Bytes) (10 times)</t>
-  </si>
-  <si>
-    <t>medium.jpg (44.43 KB) (10 times)</t>
-  </si>
-  <si>
-    <t>LAN</t>
+    <t>tiny.txt (45 Bytes) (10 times)</t>
+  </si>
+  <si>
+    <t>small.jpg (44.43 KB) (10 times)</t>
+  </si>
+  <si>
+    <t>medium.jpg (2.248 MB) (5 times)</t>
   </si>
   <si>
     <t>Internet</t>
@@ -51,9 +57,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
+    <numFmt numFmtId="102" formatCode="[GREEN]0.00%;-[RED]0.00%"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -104,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
@@ -114,6 +121,9 @@
     </xf>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" numFmtId="102" fontId="0" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -140,9 +150,10 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="10"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="10"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="9"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="9"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -172,12 +183,15 @@
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -185,22 +199,22 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>5</v>
@@ -208,123 +222,155 @@
       <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.0030138000147417188</v>
+        <v>0.003003400003944989</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.002043300005607307</v>
-      </c>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
+        <v>0.003274299998884089</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.006583900001714937</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>-0.5026807822064099</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.04863890000851825</v>
+        <v>0.04829529999988154</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.0057667999877594415</v>
-      </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
+        <v>0.009827900004165713</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.04428600000101142</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.7780811090651388</v>
+      </c>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
-    </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.004543900047428906</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.003966900007799268</v>
-      </c>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
-    </row>
+      <c r="I4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.286583599995356</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.7791729999997188</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.5591157999995631</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.3935807215613074</v>
+      </c>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+    </row>
+    <row r="6"/>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" s="0" t="n">
-        <v>0.07063169997418299</v>
+        <v>0.2364815999972052</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.010418599983677269</v>
-      </c>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
+        <v>0.466005099999893</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1.2279490999993867</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.6205012895077444</v>
+      </c>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
-    </row>
-    <row r="8"/>
+      <c r="I7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.3175075000021025</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.950518700000248</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1.3214909000016632</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.2807224779231914</v>
+      </c>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+    </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.23238089999649675</v>
+        <v>3.2856530000048223</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.77170329997316</v>
-      </c>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
+        <v>3.828223200002685</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>4.650853400002234</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.17687725869818938</v>
+      </c>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.3117841000203043</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0.9604642999940551</v>
-      </c>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-    </row>
-    <row r="11"/>
+      <c r="I9" s="0"/>
+    </row>
+    <row r="10"/>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24" xml:space="preserve">
   <si>
     <t>Avg Time (sec)</t>
   </si>
@@ -29,6 +29,9 @@
     <t>% Faster</t>
   </si>
   <si>
+    <t>UDT v2.0.0 * Avg Time (sec)</t>
+  </si>
+  <si>
     <t>Host</t>
   </si>
   <si>
@@ -44,15 +47,6 @@
     <t>0.05 ACK</t>
   </si>
   <si>
-    <t>0.1 ACK</t>
-  </si>
-  <si>
-    <t>0.15 ACK</t>
-  </si>
-  <si>
-    <t>0.2 ACK</t>
-  </si>
-  <si>
     <t>0.25 ACK</t>
   </si>
   <si>
@@ -68,31 +62,25 @@
     <t>Local</t>
   </si>
   <si>
-    <t>tiny.txt (45 Bytes) (10 times)</t>
-  </si>
-  <si>
-    <t>0.15 sec</t>
-  </si>
-  <si>
-    <t>small.jpg (44.43 KB) (10 times)</t>
-  </si>
-  <si>
-    <t>0.1 sec</t>
-  </si>
-  <si>
-    <t>medium.jpg (2.248 MB) (5 times)</t>
+    <t>tiny.txt (45 Bytes) (5 times)</t>
+  </si>
+  <si>
+    <t>0.05 sec</t>
+  </si>
+  <si>
+    <t>small.jpg (44.43 KB) (5 times)</t>
   </si>
   <si>
     <t>0.25 sec</t>
   </si>
   <si>
+    <t>medium.jpg (2.248 MB) (3 times)</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
     <t>Internet</t>
-  </si>
-  <si>
-    <t>0.05 sec</t>
-  </si>
-  <si>
-    <t>0.2 sec</t>
   </si>
 </sst>
 </file>
@@ -346,7 +334,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -360,10 +348,12 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="10"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="10"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="10"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="10"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -392,174 +382,204 @@
         <v>2</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="N2" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="15" t="n">
+        <v>0.0032691999920643868</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>0.0024687999917659908</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <v>0.007096399995498359</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.0076350000104866925</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="15" t="n">
-        <v>0.003414199996041134</v>
-      </c>
-      <c r="D3" s="11" t="n">
-        <v>0.0016750000024330803</v>
-      </c>
-      <c r="E3" s="15" t="n">
-        <v>0.012218300001404715</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.005432199996721465</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.004343200002040248</v>
-      </c>
       <c r="H3" s="0" t="n">
-        <v>0.007562099996721372</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0.010509699999238365</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>20</v>
+        <v>0.007096399995498359</v>
+      </c>
+      <c r="I3" s="17" t="n">
+        <v>-0.6521052937641497</v>
+      </c>
+      <c r="J3" s="15" t="n">
+        <v>0.01621860001469031</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.004343200002040248</v>
-      </c>
-      <c r="L3" s="17" t="n">
-        <v>-0.6143396570164309</v>
+        <v>0.016433599998708814</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.01621860001469031</v>
+      </c>
+      <c r="N3" s="17" t="n">
+        <v>-0.8477797103615708</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="15" t="n">
+        <v>0.05214440000709146</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>0.011859399994136766</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <v>0.03780220000189729</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.03449219999602064</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.03449219999602064</v>
+      </c>
+      <c r="I4" s="17" t="n">
+        <v>-0.6561715403626043</v>
+      </c>
+      <c r="J4" s="15" t="n">
+        <v>0.029602000006707384</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.04681840000557713</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="15" t="n">
-        <v>0.045461399998748674</v>
-      </c>
-      <c r="D4" s="11" t="n">
-        <v>0.0154930000033346</v>
-      </c>
-      <c r="E4" s="15" t="n">
-        <v>0.028948400000808762</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.02731739999871934</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0.03605010000464972</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0.034554200002457944</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0.033208199996443</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>0.02731739999871934</v>
-      </c>
-      <c r="L4" s="17" t="n">
-        <v>-0.4328523210824997</v>
+      <c r="M4" s="0" t="n">
+        <v>0.029602000006707384</v>
+      </c>
+      <c r="N4" s="17" t="n">
+        <v>-0.5993716643655971</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="15" t="n">
+        <v>1.2112146666816745</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>0.9889686666623069</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>0.46271566666352254</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.45738666666632827</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.45738666666632827</v>
+      </c>
+      <c r="I5" s="17" t="n">
+        <v>1.1622157765778884</v>
+      </c>
+      <c r="J5" s="15" t="n">
+        <v>0.44208733333895606</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.4438019999943208</v>
+      </c>
+      <c r="L5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="15" t="n">
-        <v>1.4270029999956022</v>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>0.6361983999959193</v>
-      </c>
-      <c r="E5" s="15" t="n">
-        <v>0.6250697999959811</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.6210510000004433</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0.6063205999904312</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0.6171819999959552</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0.6029129999980796</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>0.6029129999980796</v>
-      </c>
-      <c r="L5" s="17" t="n">
-        <v>0.05520763360210479</v>
+      <c r="M5" s="0" t="n">
+        <v>0.44208733333895606</v>
+      </c>
+      <c r="N5" s="17" t="n">
+        <v>1.2370436610180988</v>
       </c>
     </row>
     <row r="6">
@@ -603,12 +623,12 @@
           <t/>
         </is>
       </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J6" s="0" t="inlineStr">
+      <c r="I6" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J6" s="15" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -618,7 +638,17 @@
           <t/>
         </is>
       </c>
-      <c r="L6" s="11" t="inlineStr">
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N6" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -626,116 +656,134 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.23584220000338973</v>
+        <v>0.005488599999807775</v>
       </c>
       <c r="D7" s="11" t="n">
-        <v>0.4667420999976457</v>
+        <v>0.0054677999985869976</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>1.1606787000011536</v>
+        <v>0.00918360001523979</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1.1618363999994472</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1.1623959999997169</v>
+        <v>0.009800000005634501</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1.3123914000025252</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>1.1626464999979362</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>26</v>
+        <v>0.00918360001523979</v>
+      </c>
+      <c r="I7" s="17" t="n">
+        <v>-0.40461257137577666</v>
+      </c>
+      <c r="J7" s="15" t="n">
+        <v>0.024691200000233948</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1.1606787000011536</v>
-      </c>
-      <c r="L7" s="17" t="n">
-        <v>-0.5978714005889987</v>
+        <v>0.024042600009124726</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0.024042600009124726</v>
+      </c>
+      <c r="N7" s="17" t="n">
+        <v>-0.7725786730007637</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>0.32135359999956564</v>
+        <v>0.09847200001240708</v>
       </c>
       <c r="D8" s="11" t="n">
-        <v>0.9941750000041794</v>
+        <v>0.013770000007934869</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>1.2737947000015992</v>
+        <v>0.09778420000802726</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1.237368299998343</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1.2371672000008402</v>
+        <v>0.08276919998461381</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1.6212727000049199</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>1.3608425999991596</v>
-      </c>
-      <c r="J8" s="0" t="s">
+        <v>0.08276919998461381</v>
+      </c>
+      <c r="I8" s="17" t="n">
+        <v>-0.8336337670233056</v>
+      </c>
+      <c r="J8" s="15" t="n">
+        <v>0.11066559999017045</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.09054239999386482</v>
+      </c>
+      <c r="L8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <v>1.2371672000008402</v>
-      </c>
-      <c r="L8" s="17" t="n">
-        <v>-0.1964101537742804</v>
+      <c r="M8" s="0" t="n">
+        <v>0.09054239999386482</v>
+      </c>
+      <c r="N8" s="17" t="n">
+        <v>-0.8479165561232315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="13" t="n">
-        <v>3.398048599998583</v>
-      </c>
-      <c r="D9" s="12" t="n">
-        <v>4.796132999996189</v>
-      </c>
-      <c r="E9" s="13" t="n">
-        <v>4.2870424000051575</v>
-      </c>
-      <c r="F9" s="19" t="n">
-        <v>4.556186400001752</v>
-      </c>
-      <c r="G9" s="19" t="n">
-        <v>4.571803400007775</v>
-      </c>
-      <c r="H9" s="19" t="n">
-        <v>4.144852400000673</v>
-      </c>
-      <c r="I9" s="19" t="n">
-        <v>4.38671280000126</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="19" t="n">
-        <v>4.144852400000673</v>
-      </c>
-      <c r="L9" s="18" t="n">
-        <v>0.1571299860992421</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="15" t="n">
+        <v>2.7553963333387705</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>0.689359666663222</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>2.6762683333363384</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2.486780999985058</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>2.486780999985058</v>
+      </c>
+      <c r="I9" s="17" t="n">
+        <v>-0.7227903596386798</v>
+      </c>
+      <c r="J9" s="15" t="n">
+        <v>2.6846699999975194</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>2.5793796666548587</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>2.5793796666548587</v>
+      </c>
+      <c r="N9" s="17" t="n">
+        <v>-0.7327420714464895</v>
       </c>
     </row>
     <row r="10">
@@ -749,17 +797,17 @@
           <t/>
         </is>
       </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
+      <c r="C10" s="15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D10" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E10" s="15" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -779,12 +827,12 @@
           <t/>
         </is>
       </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J10" s="0" t="inlineStr">
+      <c r="I10" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J10" s="15" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -795,6 +843,220 @@
         </is>
       </c>
       <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N10" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="15" t="n">
+        <v>0.23300920000183395</v>
+      </c>
+      <c r="D11" s="11" t="n">
+        <v>0.6201378000027035</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>1.1456863999948836</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1.1486649999860674</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1.1456863999948836</v>
+      </c>
+      <c r="I11" s="17" t="n">
+        <v>-0.4587194192010372</v>
+      </c>
+      <c r="J11" s="15" t="n">
+        <v>1.1532706000027246</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1.1522238000005018</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>1.1522238000005018</v>
+      </c>
+      <c r="N11" s="17" t="n">
+        <v>-0.4617904959067558</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="15" t="n">
+        <v>0.31194919999688864</v>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>0.9423934000078589</v>
+      </c>
+      <c r="E12" s="15" t="n">
+        <v>1.2222548000048845</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1.499892400018871</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1.2222548000048845</v>
+      </c>
+      <c r="I12" s="17" t="n">
+        <v>-0.2289714059588125</v>
+      </c>
+      <c r="J12" s="15" t="n">
+        <v>1.410908399987966</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1.2311326000024565</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>1.2311326000024565</v>
+      </c>
+      <c r="N12" s="17" t="n">
+        <v>-0.23453135754346977</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>3.044473333323064</v>
+      </c>
+      <c r="D13" s="12" t="n">
+        <v>5.273617666690067</v>
+      </c>
+      <c r="E13" s="13" t="n">
+        <v>4.100997666673114</v>
+      </c>
+      <c r="F13" s="19" t="n">
+        <v>4.133916333337159</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="19" t="n">
+        <v>4.100997666673114</v>
+      </c>
+      <c r="I13" s="18" t="n">
+        <v>0.2859353004626868</v>
+      </c>
+      <c r="J13" s="13" t="n">
+        <v>3.701492333338441</v>
+      </c>
+      <c r="K13" s="19" t="n">
+        <v>4.103778666680834</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="19" t="n">
+        <v>3.701492333338441</v>
+      </c>
+      <c r="N13" s="18" t="n">
+        <v>0.424727432012185</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N14" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -802,9 +1064,10 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22" xml:space="preserve">
   <si>
     <t>Avg Time (sec)</t>
   </si>
@@ -65,25 +65,16 @@
     <t>Local</t>
   </si>
   <si>
-    <t>tiny.txt (45 Bytes) (20 times)</t>
+    <t>tiny.txt (45 Bytes) (100 times)</t>
+  </si>
+  <si>
+    <t>0.05 sec</t>
+  </si>
+  <si>
+    <t>small.jpg (44.43 KB) (100 times)</t>
   </si>
   <si>
     <t>not yet run</t>
-  </si>
-  <si>
-    <t>0.05 sec</t>
-  </si>
-  <si>
-    <t>small.jpg (44.43 KB) (20 times)</t>
-  </si>
-  <si>
-    <t>medium.jpg (2.248 MB) (20 times)</t>
-  </si>
-  <si>
-    <t>large.mp4 (35.13 MB) (5 times)</t>
-  </si>
-  <si>
-    <t>xlarge.mp4 (135.6 MB) (1 times)</t>
   </si>
 </sst>
 </file>
@@ -337,7 +328,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -475,40 +466,46 @@
         <v>18</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.06939124999917112</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="15" t="s">
+        <v>0.12226111000025412</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>0.0811160300001211</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <v>0.09576092000032077</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.10215242999969633</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.11326165999984368</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="I3" s="0" t="n">
+        <v>0.09576092000032077</v>
+      </c>
+      <c r="J3" s="17" t="n">
+        <v>-0.15293180140866036</v>
+      </c>
+      <c r="K3" s="15" t="n">
+        <v>0.10978035000021918</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.12278304999839747</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.13920078000068314</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="0"/>
-      <c r="J3" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="0"/>
+      <c r="O3" s="0" t="n">
+        <v>0.10978035000021918</v>
+      </c>
       <c r="P3" s="17" t="n">
-        <v>0</v>
+        <v>-0.2611061086983313</v>
       </c>
     </row>
     <row r="4">
@@ -516,254 +513,124 @@
         <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>0.20906763999882969</v>
+      </c>
+      <c r="D4" s="12" t="n">
+        <v>0.15971536000011838</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="15" t="n">
-        <v>0.08707095000008849</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="0"/>
-      <c r="J4" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="0"/>
-      <c r="P4" s="17" t="n">
+      <c r="O4" s="19"/>
+      <c r="P4" s="18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="15" t="n">
-        <v>0.523388499999237</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="0"/>
-      <c r="J5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="0"/>
-      <c r="P5" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="15" t="n">
-        <v>6.466518199998973</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="0"/>
-      <c r="J6" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="0"/>
-      <c r="P6" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="13" t="n">
-        <v>23.047845999997662</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P8" s="0" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P5" s="0" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22" xml:space="preserve">
   <si>
     <t>Avg Time (sec)</t>
   </si>
@@ -29,6 +29,9 @@
     <t>% Faster</t>
   </si>
   <si>
+    <t>UDT v2.0.0 * Avg Time (sec)</t>
+  </si>
+  <si>
     <t>Host</t>
   </si>
   <si>
@@ -44,18 +47,12 @@
     <t>0.05 ACK</t>
   </si>
   <si>
-    <t>0.1 ACK</t>
-  </si>
-  <si>
-    <t>0.15 ACK</t>
-  </si>
-  <si>
-    <t>0.2 ACK</t>
-  </si>
-  <si>
     <t>0.25 ACK</t>
   </si>
   <si>
+    <t>0.5 ACK</t>
+  </si>
+  <si>
     <t>ACK Time</t>
   </si>
   <si>
@@ -68,31 +65,16 @@
     <t>Local</t>
   </si>
   <si>
-    <t>tiny.txt (45 Bytes) (10 times)</t>
-  </si>
-  <si>
-    <t>0.15 sec</t>
-  </si>
-  <si>
-    <t>small.jpg (44.43 KB) (10 times)</t>
-  </si>
-  <si>
-    <t>0.1 sec</t>
-  </si>
-  <si>
-    <t>medium.jpg (2.248 MB) (5 times)</t>
-  </si>
-  <si>
-    <t>0.25 sec</t>
-  </si>
-  <si>
-    <t>Internet</t>
+    <t>tiny.txt (45 Bytes) (100 times)</t>
   </si>
   <si>
     <t>0.05 sec</t>
   </si>
   <si>
-    <t>0.2 sec</t>
+    <t>small.jpg (44.43 KB) (100 times)</t>
+  </si>
+  <si>
+    <t>not yet run</t>
   </si>
 </sst>
 </file>
@@ -346,7 +328,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -361,9 +343,13 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="10"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="10"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="10"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="10"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -395,406 +381,256 @@
         <v>2</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="P2" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="15" t="n">
+        <v>0.12226111000025412</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>0.0811160300001211</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <v>0.09576092000032077</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.10215242999969633</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.11326165999984368</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="15" t="n">
-        <v>0.003414199996041134</v>
-      </c>
-      <c r="D3" s="11" t="n">
-        <v>0.0016750000024330803</v>
-      </c>
-      <c r="E3" s="15" t="n">
-        <v>0.012218300001404715</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.005432199996721465</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.004343200002040248</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0.007562099996721372</v>
-      </c>
       <c r="I3" s="0" t="n">
-        <v>0.010509699999238365</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>0.004343200002040248</v>
-      </c>
-      <c r="L3" s="17" t="n">
-        <v>-0.6143396570164309</v>
+        <v>0.09576092000032077</v>
+      </c>
+      <c r="J3" s="17" t="n">
+        <v>-0.15293180140866036</v>
+      </c>
+      <c r="K3" s="15" t="n">
+        <v>0.10978035000021918</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.12278304999839747</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.13920078000068314</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.10978035000021918</v>
+      </c>
+      <c r="P3" s="17" t="n">
+        <v>-0.2611061086983313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>0.20906763999882969</v>
+      </c>
+      <c r="D4" s="12" t="n">
+        <v>0.15971536000011838</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="15" t="n">
-        <v>0.045461399998748674</v>
-      </c>
-      <c r="D4" s="11" t="n">
-        <v>0.0154930000033346</v>
-      </c>
-      <c r="E4" s="15" t="n">
-        <v>0.028948400000808762</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.02731739999871934</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0.03605010000464972</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0.034554200002457944</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0.033208199996443</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>0.02731739999871934</v>
-      </c>
-      <c r="L4" s="17" t="n">
-        <v>-0.4328523210824997</v>
+      <c r="F4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="19"/>
+      <c r="P4" s="18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="15" t="n">
-        <v>1.4270029999956022</v>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>0.6361983999959193</v>
-      </c>
-      <c r="E5" s="15" t="n">
-        <v>0.6250697999959811</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.6210510000004433</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0.6063205999904312</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0.6171819999959552</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0.6029129999980796</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>0.6029129999980796</v>
-      </c>
-      <c r="L5" s="17" t="n">
-        <v>0.05520763360210479</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C6" s="15" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E6" s="15" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L6" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="15" t="n">
-        <v>0.23584220000338973</v>
-      </c>
-      <c r="D7" s="11" t="n">
-        <v>0.4667420999976457</v>
-      </c>
-      <c r="E7" s="15" t="n">
-        <v>1.1606787000011536</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1.1618363999994472</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1.1623959999997169</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1.3123914000025252</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>1.1626464999979362</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>1.1606787000011536</v>
-      </c>
-      <c r="L7" s="17" t="n">
-        <v>-0.5978714005889987</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="15" t="n">
-        <v>0.32135359999956564</v>
-      </c>
-      <c r="D8" s="11" t="n">
-        <v>0.9941750000041794</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>1.2737947000015992</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1.237368299998343</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1.2371672000008402</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1.6212727000049199</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>1.3608425999991596</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>1.2371672000008402</v>
-      </c>
-      <c r="L8" s="17" t="n">
-        <v>-0.1964101537742804</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="13" t="n">
-        <v>3.398048599998583</v>
-      </c>
-      <c r="D9" s="12" t="n">
-        <v>4.796132999996189</v>
-      </c>
-      <c r="E9" s="13" t="n">
-        <v>4.2870424000051575</v>
-      </c>
-      <c r="F9" s="19" t="n">
-        <v>4.556186400001752</v>
-      </c>
-      <c r="G9" s="19" t="n">
-        <v>4.571803400007775</v>
-      </c>
-      <c r="H9" s="19" t="n">
-        <v>4.144852400000673</v>
-      </c>
-      <c r="I9" s="19" t="n">
-        <v>4.38671280000126</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="19" t="n">
-        <v>4.144852400000673</v>
-      </c>
-      <c r="L9" s="18" t="n">
-        <v>0.1571299860992421</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P5" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -802,9 +638,10 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -9,12 +9,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19" xml:space="preserve">
   <si>
     <t>Avg Time (sec)</t>
   </si>
   <si>
-    <t>UDT v1.0.0 * Avg Time (sec)</t>
+    <t>UDT v2.0.0 * Avg Time (sec)</t>
   </si>
   <si>
     <t>*</t>
@@ -29,9 +29,6 @@
     <t>% Faster</t>
   </si>
   <si>
-    <t>UDT v2.0.0 * Avg Time (sec)</t>
-  </si>
-  <si>
     <t>Host</t>
   </si>
   <si>
@@ -62,33 +59,26 @@
     <t>Than TCP</t>
   </si>
   <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>tiny.txt (45 Bytes) (100 times)</t>
-  </si>
-  <si>
-    <t>0.05 sec</t>
-  </si>
-  <si>
-    <t>small.jpg (44.43 KB) (100 times)</t>
-  </si>
-  <si>
-    <t>not yet run</t>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>large.mp4 (35.13 MB) (5 times)</t>
+  </si>
+  <si>
+    <t>0.25 sec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
     <numFmt numFmtId="102" formatCode="[GREEN]0.00%;-[RED]0.00%"/>
     <numFmt numFmtId="103" formatCode="[GREEN]0.00%;-[RED]0.00%"/>
-    <numFmt numFmtId="104" formatCode="[GREEN]0.00%;-[RED]0.00%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -142,11 +132,6 @@
       <family val="1"/>
       <b val="true"/>
       <u val="true"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11"/>
-      <family val="1"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -162,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -217,11 +202,6 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
@@ -240,19 +220,9 @@
       </left>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
     </border>
     <border>
       <right style="thick">
@@ -271,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
@@ -299,21 +269,16 @@
     </xf>
     <xf borderId="6" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf borderId="7" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="8" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="9" numFmtId="0" fontId="6" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="11" numFmtId="0" fontId="7" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="12" numFmtId="103" fontId="8" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf borderId="8" numFmtId="0" fontId="6" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="9" numFmtId="0" fontId="7" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="10" numFmtId="103" fontId="8" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf borderId="13" numFmtId="104" fontId="9" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf borderId="14" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="11" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -328,7 +293,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -344,12 +309,6 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="10"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="10"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="11"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -374,263 +333,129 @@
       <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="n">
+        <v>26.14095600000146</v>
+      </c>
+      <c r="F3" s="16" t="n">
+        <v>25.433276199999817</v>
+      </c>
+      <c r="G3" s="16" t="n">
+        <v>27.84744200000059</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="15" t="n">
-        <v>0.12226111000025412</v>
-      </c>
-      <c r="D3" s="11" t="n">
-        <v>0.0811160300001211</v>
-      </c>
-      <c r="E3" s="15" t="n">
-        <v>0.09576092000032077</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.10215242999969633</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.11326165999984368</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0.09576092000032077</v>
-      </c>
-      <c r="J3" s="17" t="n">
-        <v>-0.15293180140866036</v>
-      </c>
-      <c r="K3" s="15" t="n">
-        <v>0.10978035000021918</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>0.12278304999839747</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>0.13920078000068314</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>0.10978035000021918</v>
-      </c>
-      <c r="P3" s="17" t="n">
-        <v>-0.2611061086983313</v>
+      <c r="I3" s="16" t="n">
+        <v>25.433276199999817</v>
+      </c>
+      <c r="J3" s="15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="13" t="n">
-        <v>0.20906763999882969</v>
-      </c>
-      <c r="D4" s="12" t="n">
-        <v>0.15971536000011838</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P5" s="0" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -638,10 +463,9 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
